--- a/数据整理/stocks/A股/创业板/300284-苏交科.xlsx
+++ b/数据整理/stocks/A股/创业板/300284-苏交科.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000963</t>
+          <t>002330</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴业多策略灵活配置混合</t>
+          <t>兴业聚宝灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.29</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>86.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001272</t>
+          <t>000963</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴业聚利灵活配置混合</t>
+          <t>兴业多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.07</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002330</t>
+          <t>001272</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴业聚宝灵活配置混合</t>
+          <t>兴业聚利灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.92</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000963</t>
+          <t>002330</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴业多策略灵活配置混合</t>
+          <t>兴业聚宝灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001272</t>
+          <t>000963</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴业聚利灵活配置混合</t>
+          <t>兴业多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002330</t>
+          <t>001272</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴业聚宝灵活配置混合</t>
+          <t>兴业聚利灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300284-苏交科.xlsx
+++ b/数据整理/stocks/A股/创业板/300284-苏交科.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300284-苏交科.xlsx
+++ b/数据整理/stocks/A股/创业板/300284-苏交科.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -878,4 +879,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300284-苏交科.xlsx
+++ b/数据整理/stocks/A股/创业板/300284-苏交科.xlsx
@@ -903,12 +903,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300284-苏交科.xlsx
+++ b/数据整理/stocks/A股/创业板/300284-苏交科.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -887,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,17 +899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -918,14 +939,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -934,14 +1029,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
@@ -950,13 +1045,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300284-苏交科.xlsx
+++ b/数据整理/stocks/A股/创业板/300284-苏交科.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5298</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1029,14 +1072,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.12</v>
+          <t>003300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1045,14 +1110,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>015068</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -1061,13 +1232,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300284-苏交科.xlsx
+++ b/数据整理/stocks/A股/创业板/300284-苏交科.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,167 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002330</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴业聚宝灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.92</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1607</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000963</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴业多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1388</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001272</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>兴业聚利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0812</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -646,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -676,32 +622,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002330</t>
+          <t>161838</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴业聚宝灵活配置混合</t>
+          <t>银华创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1662</t>
+          <t>0.5298</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -714,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000963</t>
+          <t>003300</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴业多策略灵活配置混合</t>
+          <t>华夏圆和灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>81.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1421</t>
+          <t>0.0267</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -752,36 +698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001272</t>
+          <t>015068</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴业聚利灵活配置混合</t>
+          <t>华夏圆和灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>81.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0880</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -816,7 +762,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -846,36 +792,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000963</t>
+          <t>005295</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴业多策略灵活配置混合</t>
+          <t>诺德天富灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.99</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1172</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +856,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -940,36 +886,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005295</t>
+          <t>000963</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺德天富灵活配置混合</t>
+          <t>兴业多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>89.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0155</t>
+          <t>0.1172</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1004,7 +950,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1034,32 +980,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161838</t>
+          <t>002330</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华创业板两年定期开放混合</t>
+          <t>兴业聚宝灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.45</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5298</t>
+          <t>0.1662</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1072,36 +1018,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003300</t>
+          <t>000963</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏圆和灵活配置混合</t>
+          <t>兴业多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.65</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0267</t>
+          <t>0.1421</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1110,36 +1056,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>015068</t>
+          <t>001272</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏圆和灵活配置混合C</t>
+          <t>兴业聚利灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.65</t>
+          <t>91.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0880</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1153,112 +1099,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5600000000000001</v>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.38</v>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300284-苏交科.xlsx
+++ b/数据整理/stocks/A股/创业板/300284-苏交科.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -566,6 +583,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3934</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -728,100 +839,6 @@
       </c>
       <c r="H4" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005295</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺德天富灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +873,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -886,36 +903,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000963</t>
+          <t>005295</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴业多策略灵活配置混合</t>
+          <t>诺德天富灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.99</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1172</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -924,6 +941,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1093,7 +1204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300284-苏交科.xlsx
+++ b/数据整理/stocks/A股/创业板/300284-苏交科.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -649,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.33</t>
+          <t>95.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3934</t>
+          <t>0.3598</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -677,6 +694,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3934</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -839,100 +950,6 @@
       </c>
       <c r="H4" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005295</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺德天富灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -967,7 +984,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -997,36 +1014,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000963</t>
+          <t>005295</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴业多策略灵活配置混合</t>
+          <t>诺德天富灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.99</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1172</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1035,6 +1052,100 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1204,7 +1315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
